--- a/data/trans_orig/PERI_TABACO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/PERI_TABACO-Clase-trans_orig.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>24,86</t>
+          <t>24,24</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>20,59</t>
+          <t>20,95</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>23,37</t>
+          <t>23,13</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,95; 26,93</t>
+          <t>20,73; 26,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,94; 23,11</t>
+          <t>17,88; 24,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>21,27; 24,99</t>
+          <t>20,79; 25,23</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>28,21</t>
+          <t>26,88</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>20,78</t>
+          <t>20,96</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>25,39</t>
+          <t>24,66</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25,68; 30,8</t>
+          <t>23,88; 30,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,94; 23,91</t>
+          <t>17,5; 24,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>23,2; 27,59</t>
+          <t>22,14; 26,94</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>31,62</t>
+          <t>32,6</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>23,31</t>
+          <t>26,97</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>30,51</t>
+          <t>32,4</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>29,51; 33,3</t>
+          <t>29,49; 35,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>19,34; 27,12</t>
+          <t>22,63; 31,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>28,28; 32,38</t>
+          <t>29,37; 34,36</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>31,31</t>
+          <t>29,82</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>20,9</t>
+          <t>22,91</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>28,21</t>
+          <t>27,59</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>29,43; 33,24</t>
+          <t>27,16; 32,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,15; 23,28</t>
+          <t>19,82; 26,11</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,61; 29,81</t>
+          <t>25,69; 29,78</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>30,08</t>
+          <t>27,33</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>22,92</t>
+          <t>21,53</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>26,95</t>
+          <t>24,26</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>27,08; 32,72</t>
+          <t>22,08; 32,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>20,24; 25,65</t>
+          <t>17,7; 25,51</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>24,84; 28,94</t>
+          <t>21,0; 27,38</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>19,78</t>
+          <t>15,31</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>23,89</t>
+          <t>24,03</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>23,26</t>
+          <t>22,47</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>10,53; 28,99</t>
+          <t>7,54; 28,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>18,36; 27,95</t>
+          <t>15,48; 29,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>18,37; 27,22</t>
+          <t>16,56; 27,75</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>29,4</t>
+          <t>29,72</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>21,75</t>
+          <t>22,2</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>26,79</t>
+          <t>27,79</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>28,22; 30,61</t>
+          <t>26,94; 31,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>20,44; 22,99</t>
+          <t>20,53; 23,73</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>25,83; 27,93</t>
+          <t>25,11; 30,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/PERI_TABACO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/PERI_TABACO-Clase-trans_orig.xlsx
@@ -497,7 +497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Número total de años que ha consumido tabaco años</t>
+          <t>Número total de años que ha consumido tabaco años (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/PERI_TABACO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/PERI_TABACO-Clase-trans_orig.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,73; 26,72</t>
+          <t>20,73; 26,81</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,88; 24,07</t>
+          <t>17,87; 24,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,79; 25,23</t>
+          <t>20,43; 25,25</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>23,88; 30,15</t>
+          <t>23,64; 29,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,5; 24,45</t>
+          <t>17,78; 24,74</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22,14; 26,94</t>
+          <t>22,2; 26,89</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>29,49; 35,39</t>
+          <t>29,47; 35,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>22,63; 31,67</t>
+          <t>22,55; 31,61</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,37; 34,36</t>
+          <t>29,14; 33,25</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>27,16; 32,44</t>
+          <t>27,32; 32,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,82; 26,11</t>
+          <t>19,64; 25,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>25,69; 29,78</t>
+          <t>25,45; 29,64</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>22,08; 32,06</t>
+          <t>22,95; 32,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,7; 25,51</t>
+          <t>17,62; 25,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>21,0; 27,38</t>
+          <t>20,68; 27,1</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,54; 28,05</t>
+          <t>7,65; 28,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,48; 29,21</t>
+          <t>16,57; 29,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,56; 27,75</t>
+          <t>16,59; 27,66</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>26,94; 31,8</t>
+          <t>26,93; 31,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>20,53; 23,73</t>
+          <t>20,71; 23,95</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>25,11; 30,63</t>
+          <t>25,11; 30,9</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/PERI_TABACO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/PERI_TABACO-Clase-trans_orig.xlsx
@@ -556,12 +556,12 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>24,24</t>
+          <t>24,26</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>20,95</t>
+          <t>20,91</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>20,73; 26,81</t>
+          <t>21,15; 26,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,87; 24,08</t>
+          <t>17,79; 23,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,43; 25,25</t>
+          <t>20,72; 25,21</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>26,88</t>
+          <t>26,56</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>20,96</t>
+          <t>20,77</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>24,66</t>
+          <t>24,39</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>23,64; 29,7</t>
+          <t>23,54; 29,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,78; 24,74</t>
+          <t>17,57; 24,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22,2; 26,89</t>
+          <t>22,05; 26,69</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>32,6</t>
+          <t>30,88</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>26,97</t>
+          <t>27,05</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>32,4</t>
+          <t>30,25</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>29,47; 35,2</t>
+          <t>27,81; 34,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>22,55; 31,61</t>
+          <t>22,65; 31,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>29,14; 33,25</t>
+          <t>27,53; 32,8</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>29,82</t>
+          <t>29,13</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22,91</t>
+          <t>21,96</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>27,59</t>
+          <t>26,92</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>27,32; 32,42</t>
+          <t>26,29; 31,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>19,64; 25,95</t>
+          <t>18,71; 25,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>25,45; 29,64</t>
+          <t>24,5; 28,96</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>27,33</t>
+          <t>27,2</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>21,53</t>
+          <t>21,42</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>24,26</t>
+          <t>24,05</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>22,95; 32,41</t>
+          <t>23,23; 32,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,62; 25,67</t>
+          <t>17,57; 25,52</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>20,68; 27,1</t>
+          <t>20,55; 26,83</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>15,31</t>
+          <t>15,76</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>24,03</t>
+          <t>26,32</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>22,47</t>
+          <t>24,49</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,65; 28,75</t>
+          <t>7,82; 28,93</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>16,57; 29,9</t>
+          <t>19,2; 30,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,59; 27,66</t>
+          <t>18,58; 28,97</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>29,72</t>
+          <t>27,3</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>22,2</t>
+          <t>22,13</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>27,79</t>
+          <t>25,4</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>26,93; 31,95</t>
+          <t>25,98; 28,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>20,71; 23,95</t>
+          <t>20,63; 23,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>25,11; 30,9</t>
+          <t>24,34; 26,59</t>
         </is>
       </c>
     </row>
